--- a/storage/templates/访客导入模板.xlsx
+++ b/storage/templates/访客导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\其他\海康威视门禁\导入模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\www\visitor\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A88D97-D3F1-40E8-A136-9D5C5395ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C090F4-8026-44B7-B032-E429237F1015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="33130" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="8400" windowWidth="33130" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,6 +237,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,8 +248,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -531,62 +531,62 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="17.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.08203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.4140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.4140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.4140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.58203125" customWidth="1"/>
-    <col min="12" max="12" width="18.4140625" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.4140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -595,10 +595,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -607,28 +607,28 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
